--- a/outputs_analysis_validation/regression_summary_all_v2.xlsx
+++ b/outputs_analysis_validation/regression_summary_all_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinelo A\Documents\GitHub\Data-Management-Final-Project-Agbim\outputs_analysis_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E2ABC-029B-4035-ACAC-BD8F9CBFEB84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B3182B-3A1A-41D0-B5BD-76CDE08C3E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2340" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00ED149C-9B54-4447-8760-DEEA414D0A17}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>Estimate</t>
   </si>
@@ -160,6 +160,36 @@
   </si>
   <si>
     <t xml:space="preserve">Adjusted R-squared:  0.4658 </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Varable</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>Note: ***indicates p&lt;0.001, **indicates p&lt;0.01, *indicates p&lt;0.05,</t>
   </si>
 </sst>
 </file>
@@ -167,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +212,19 @@
       <sz val="10"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,35 +255,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="51">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -251,6 +586,156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5F61E5AF-D08F-47E6-A3F6-537EA32D341C}" name="Table8" displayName="Table8" ref="A1:F14" totalsRowShown="0" headerRowDxfId="48">
+  <autoFilter ref="A1:F14" xr:uid="{0EA55088-ABF8-4677-B4C4-E4271D7C182B}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="*"/>
+        <filter val="**"/>
+        <filter val="***"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{95DE6F67-0AA5-420B-A8C5-F5225B759FE7}" name="Variable" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{B6EA3D85-7DE8-4B46-94F2-E13FB2DA507F}" name="Estimate"/>
+    <tableColumn id="3" xr3:uid="{6F74650E-3E25-41DF-BAFB-52C3B4A0C1D2}" name="Std. Error"/>
+    <tableColumn id="4" xr3:uid="{D816BB98-2FAB-47EF-B6B4-E57E44921FD0}" name="t"/>
+    <tableColumn id="5" xr3:uid="{E0C56805-7E9B-4B43-99C3-11E5FF17B4EA}" name="Pr(&gt;|t|)"/>
+    <tableColumn id="6" xr3:uid="{04F01F3F-3E47-43A7-98D8-7188CA3CD608}" name="Significance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B5BC891C-4899-4110-B5CD-7BE52A2BC53F}" name="Table10" displayName="Table10" ref="A15:F17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A15:F17" xr:uid="{49230A9A-6911-4C97-AD4A-78CE27B4EC6B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7F5550A8-E8E6-4055-B080-CE8F705A468E}" name="Summary Statistics" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{77D3497B-575E-4A24-BBC8-CB72E6E60A52}" name="Column2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{18504FD9-D62E-4FF6-8CE7-A18139D7BE35}" name="Column3" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{4F92FE14-917F-4BE0-A4BC-3FFD6FD97CE2}" name="Column4" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{4FB25526-E149-4825-A725-8A47E6337075}" name="Column5" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{FAE7E706-C3D3-440F-9B68-DFEF5A705716}" name="Column6" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AF0DE891-67EB-4EE5-8451-C874FA4030E2}" name="Table3" displayName="Table3" ref="A1:F15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F15" xr:uid="{9FCAF898-A5FE-4BDA-B054-48679D0064F9}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="*"/>
+        <filter val="**"/>
+        <filter val="***"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8F4B00F4-D261-4CC3-9FE1-6BCAFDFEE113}" name="Varable" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D036DDEB-F812-44A2-846C-FEE7137C2AB4}" name="Estimate" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{1C40B4B7-F170-4794-9CBA-94AEB9CA1E05}" name="Std. Error" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C0BE2015-18BB-4B97-BA4E-612253ED5E15}" name="t" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{80B0A296-2CCD-48CA-882E-45BC42F10A29}" name="Pr(&gt;|t|)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{EED3A34A-9DB8-4163-A0C7-7DC1125BD058}" name="Significance" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AE0E9AC-D6A5-4F8F-A369-A97156DF992C}" name="Table4" displayName="Table4" ref="A16:F18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A16:F18" xr:uid="{A4340F78-FD96-4ABE-A3BD-539D862E08F9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7AA59DF7-F892-4806-B8D7-080AFB4ED0E0}" name="Summary Statistics" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C8FACB51-E540-4AD0-8FA6-4D9A77BFC044}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B5E199A4-C507-4763-90E5-3683F18FC447}" name="Column2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B2685DB2-6AA4-4436-B570-D10D53AD1621}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{F61A1692-D474-4B9C-AF5F-93ADCCEEF87B}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{74B96B68-B3F5-4723-8B51-B9DA23D78F67}" name="Column6" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B4A998F6-E14A-4C58-8ABC-6E1C183CF6C1}" name="Table7" displayName="Table7" ref="A1:F14" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:F14" xr:uid="{83E29398-CBE8-45AC-AC51-DE131FB409BE}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="**"/>
+        <filter val="***"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{010CD9F1-DA3D-46A2-91BA-77243A20CF58}" name="Variable" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{891CD905-A08F-4215-B545-2A93E9BD9FE0}" name="Estimate" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{C01ECC8E-4713-487B-9534-C1D47B3DA5C6}" name="Std. Error" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{ADC9D609-260F-405C-A1ED-03CE830990AD}" name="t" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{11DB2BDD-90B1-4393-8143-D840D79C2644}" name="Pr(&gt;|t|)" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{DBD07824-B556-4500-A3D8-E97BA8D0BEC4}" name="Significance" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B5815BD-7E80-4B6B-A332-CA14CC1C1CB2}" name="Table11" displayName="Table11" ref="A15:F17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A15:F17" xr:uid="{979D4CDC-A1E6-49CE-AF67-F471F806D998}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0E0BC36A-A13A-43A0-AF5C-D2DC9F264570}" name="Summary Statistics" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{83F8B067-D4C8-4054-B33E-605E190BD18C}" name="Column2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9458F107-FE37-45A2-A7DB-7C7E58C341B3}" name="Column3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{5A5986FC-AB63-452C-BB6C-776A01327510}" name="Column4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1FA8E722-AA3D-49F3-817B-9AEBE46247AF}" name="Column5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F64F08EA-C46D-4D51-93DA-D46A4B657FFF}" name="Column6" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{736311E7-DB3B-4560-BE1A-0FBAC922FD95}" name="Table5" displayName="Table5" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{E76F1F5C-A1E3-4D7F-B635-04EC9AD618B7}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="**"/>
+        <filter val="***"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FB5EBA64-4338-4BB6-8183-917DC8FFC6B9}" name="Variable" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{AD7C6132-C15C-4AC1-A99A-EDB8D92241D1}" name="Estimate"/>
+    <tableColumn id="3" xr3:uid="{16F5EF87-4206-4C3E-9941-FF104D7CB6E1}" name="Std. Error"/>
+    <tableColumn id="4" xr3:uid="{3865C800-1276-48E1-AE87-10D1742C6026}" name="t"/>
+    <tableColumn id="5" xr3:uid="{17274D09-37B6-4800-B37F-071D9E6C6077}" name="Pr(&gt;|t|)"/>
+    <tableColumn id="6" xr3:uid="{506B3CA7-D145-47CD-BF88-CC79C5FCBE14}" name="Significance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B908C868-A7FB-47BA-A79F-0AF86374E72F}" name="Table9" displayName="Table9" ref="A16:F18" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A16:F18" xr:uid="{26EB8A93-0AAB-4061-9D66-EE67B837D0D1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A753BF93-E1B7-4731-BEDA-2A2DCA0ECC7A}" name="Summary Statistics" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{CB0AFAD3-E9C4-495D-A2D9-EC36A4113262}" name="Column2" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{E55A1E68-632C-4D50-A06C-CCF3DF6019B2}" name="Column3" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{46437F75-EDE9-456F-9EA0-BB21D415A912}" name="Column4" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{B7CD590D-B3B7-45ED-97D6-5E0CA2A12032}" name="Column5" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{FD56D821-1023-4A20-B070-01F036670E32}" name="Column6" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,40 +1035,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF226EF-AEA7-4E80-ABF0-50BBF538344C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -600,7 +1088,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -620,7 +1108,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -637,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -654,7 +1142,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -671,7 +1159,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -688,67 +1176,67 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="11">
         <v>0.38736100000000001</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>4.6029E-2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>8.4160000000000004</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>3.5500000000000001E-15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="11">
         <v>7.5482999999999995E-2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>2.3948000000000001E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>3.1520000000000001</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>1.83E-3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>-7.9008999999999996E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>3.7352000000000003E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>-2.1150000000000002</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>3.5439999999999999E-2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11">
@@ -765,27 +1253,27 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>-1.220008</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>0.37972</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>-3.2130000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>1.49E-3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
@@ -802,7 +1290,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14">
@@ -818,697 +1306,810 @@
         <v>0.75041999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F14" xr:uid="{0EA55088-ABF8-4677-B4C4-E4271D7C182B}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="*"/>
-        <filter val="**"/>
-        <filter val="***"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B106AC45-7F5D-4CB6-9F77-3851C6F27DD3}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>9.7185439999999996</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>5.3728610000000003</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>1.8089999999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>7.1734999999999993E-2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="17">
         <v>-8.2988000000000006E-2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="17">
         <v>4.1452000000000003E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="17">
         <v>-2.0019999999999998</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="17">
         <v>4.6411000000000001E-2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>1.3003000000000001E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>7.3140000000000002E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>1.778</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>-5.7568000000000001E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>4.5704000000000002E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>-1.26</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="12">
         <v>0.20904200000000001</v>
       </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>1.8220000000000001E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>1.9567999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <v>0.92589299999999997</v>
       </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>-2.1177999999999999E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>0.14454500000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <v>0.88363700000000001</v>
       </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="17">
         <v>0.34455400000000003</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="17">
         <v>4.7796999999999999E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="17">
         <v>7.2089999999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="17">
         <v>7.3799999999999997E-12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="17">
         <v>8.0696000000000004E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="17">
         <v>2.3674000000000001E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="17">
         <v>3.4089999999999998</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="17">
         <v>7.6599999999999997E-4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="17">
         <v>-0.14130699999999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="17">
         <v>4.2838000000000001E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="17">
         <v>-3.2989999999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="17">
         <v>1.1199999999999999E-3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>4.2007000000000003E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>7.5703999999999994E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>0.57949700000000004</v>
       </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>-1.7589669999999999</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="17">
         <v>0.41949199999999998</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="17">
         <v>-4.1929999999999996</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="17">
         <v>3.8800000000000001E-5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>7.0198999999999998E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="12">
         <v>4.1606999999999998E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="12">
         <v>1.6870000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="12">
         <v>9.2873999999999998E-2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>-1.0406E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="12">
         <v>1.7329000000000001E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>-0.6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>0.54875600000000002</v>
       </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="17">
         <v>2.0411820000000001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="17">
         <v>0.71779800000000005</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="17">
         <v>2.8439999999999999</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="17">
         <v>4.8459999999999996E-3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{6F9327CC-323D-4A27-91D9-EB3F57BECD3F}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="*"/>
-        <filter val="**"/>
-        <filter val="***"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC29D5F-BEEA-4169-9871-F8517252E0D4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="13">
         <v>-10.189851000000001</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <v>3.4421590000000002</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="13">
         <v>-2.96</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>3.3800000000000002E-3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <v>-6.3451999999999995E-2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>4.1113999999999998E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <v>-1.5429999999999999</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <v>0.12407</v>
       </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="13">
         <v>9.0340000000000004E-3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="13">
         <v>7.3790000000000001E-3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="13">
         <v>1.224</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="13">
         <v>0.22209000000000001</v>
       </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="13">
         <v>3.5321999999999999E-2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <v>4.6872999999999998E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>0.754</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <v>0.45184000000000002</v>
       </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="13">
         <v>2.0990000000000002E-3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>2.0052E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>0.105</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="13">
         <v>0.91671000000000002</v>
       </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="13">
         <v>0.149449</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="13">
         <v>0.12955700000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="13">
         <v>1.1539999999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="13">
         <v>0.24984000000000001</v>
       </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="13">
         <v>0.37992300000000001</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="13">
         <v>4.6177000000000003E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="13">
         <v>8.2279999999999998</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="13">
         <v>1.2199999999999999E-14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="13">
         <v>6.7402000000000004E-2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <v>2.4662E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="13">
         <v>2.7330000000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="13">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="13">
         <v>5.6410000000000002E-3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="13">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="13">
         <v>0.73299999999999998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="13">
         <v>0.46451999999999999</v>
       </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="13">
         <v>0.12814999999999999</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="13">
         <v>8.2425999999999999E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="13">
         <v>1.5549999999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="13">
         <v>0.12132999999999999</v>
       </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="13">
         <v>0.136883</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="13">
         <v>6.9591E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="13">
         <v>1.9670000000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="13">
         <v>5.0340000000000003E-2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="13">
         <v>5.1418999999999999E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="13">
         <v>4.3672999999999997E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="13">
         <v>1.177</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="13">
         <v>0.24021000000000001</v>
       </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="13">
         <v>-1.0177E-2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="13">
         <v>1.7604000000000002E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="13">
         <v>-0.57799999999999996</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="13">
         <v>0.56374000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F14" xr:uid="{83E29398-CBE8-45AC-AC51-DE131FB409BE}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="**"/>
-        <filter val="***"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B44BC-A447-43A6-BAF3-A9298E06B380}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="17">
         <v>-10.686556</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="17">
         <v>3.378952</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="17">
         <v>-3.1629999999999998</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="17">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3">
@@ -1528,7 +2129,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -1545,7 +2146,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5">
@@ -1562,7 +2163,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -1579,7 +2180,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7">
@@ -1596,47 +2197,47 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="17">
         <v>0.330345</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="17">
         <v>4.7780000000000003E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="17">
         <v>6.9139999999999997</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="17">
         <v>4.2699999999999999E-11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="17">
         <v>7.4997999999999995E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="17">
         <v>2.4296999999999999E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="17">
         <v>3.0870000000000002</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="17">
         <v>2.2599999999999999E-3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10">
@@ -1653,7 +2254,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11">
@@ -1673,27 +2274,27 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>0.24840100000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="17">
         <v>7.6377E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="17">
         <v>3.2519999999999998</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="17">
         <v>1.31E-3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
@@ -1710,7 +2311,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14">
@@ -1727,45 +2328,74 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="17">
         <v>2.248764</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="17">
         <v>0.69158600000000003</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="17">
         <v>3.2519999999999998</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="17">
         <v>1.31E-3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F15" xr:uid="{E76F1F5C-A1E3-4D7F-B635-04EC9AD618B7}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="**"/>
-        <filter val="***"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>